--- a/biology/Zoologie/Grallaire_à_moustaches/Grallaire_à_moustaches.xlsx
+++ b/biology/Zoologie/Grallaire_à_moustaches/Grallaire_à_moustaches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_moustaches</t>
+          <t>Grallaire_à_moustaches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grallaire à moustaches (Grallaria alleni) est une espèce de passereaux de la famille des Grallariidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_moustaches</t>
+          <t>Grallaire_à_moustaches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans la cordillère des Andes en Colombie et en Équateur. On la trouve dans les forêts de nuages entre 1 800 et 2 500 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans la cordillère des Andes en Colombie et en Équateur. On la trouve dans les forêts de nuages entre 1 800 et 2 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_moustaches</t>
+          <t>Grallaire_à_moustaches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 3.3, 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 3.3, 2013) :
 sous-espèce Grallaria alleni alleni Chapman, 1912
 sous-espèce Grallaria alleni andaquiensis Hernández-Camacho &amp; Rodríguez-M, 1979</t>
         </is>
